--- a/modified.xlsx
+++ b/modified.xlsx
@@ -496,11 +496,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>9.03088853927779e+18</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>njua</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -512,12 +522,26 @@
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>-2.575485427622674e+18</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dpero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>gf</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ng</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -528,12 +552,26 @@
       <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.578401509451172e+18</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nmh</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>mh</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -544,12 +582,22 @@
       <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>-2.179594381639227e+18</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mh</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dfg</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
